--- a/medicine/Enfance/Sacrées_Sorcières/Sacrées_Sorcières.xlsx
+++ b/medicine/Enfance/Sacrées_Sorcières/Sacrées_Sorcières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sacr%C3%A9es_Sorci%C3%A8res</t>
+          <t>Sacrées_Sorcières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sacrées Sorcières (titre original : The Witches) est un roman pour enfants de Roald Dahl, publié en 1983 et illustré par Quentin Blake.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sacr%C3%A9es_Sorci%C3%A8res</t>
+          <t>Sacrées_Sorcières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire est racontée du point de vue d'un garçon anglais de sept ans, sans nom, qui va vivre avec sa grand-mère norvégienne après que ses parents ont été tués dans un accident de voiture. Le garçon adore toutes les histoires de sa grand-mère, mais il est particulièrement captivé par celles qui parlent de sorcières réelles qui, selon elle, sont d'horribles démons féminins qui cherchent à tuer des enfants humains. Elle lui dit qu'une vraie sorcière ressemble exactement à une femme ordinaire, mais qu'il existe des moyens de savoir s'il s'agit d'une sorcière : les vraies sorcières ont des griffes à la place des ongles, qu'elles cachent en portant des gants, elles sont chauves, ce qu'elles cachent en portant des perruques qui leur provoquent des éruptions cutanées, ont des pieds carrés sans orteils qu'elles cachent en portant de petites chaussures pointues qui les gênent, ont des yeux dont les pupilles changent de couleur, ont une salive bleue qu'elles utilisent comme encre et ont des narines plus larges au bord rose et recourbé qu'elles utilisent pour renifler les enfants qui, pour une sorcière, sentent la crotte de chien, mais plus l'enfant est sale, moins la sorcière a de chances de le sentir. Sa grand-mère lui raconte aussi l'histoire de cinq enfants qui ont été attaqués par des sorcières: Ranghild est enlevée par une sorcière, Solveg est déplacé dans le tableau familial y vieillit puis y meurt, Birgit Svenson est transformée en poule pondeuse, Harald est changé en pierre et ses parents l'utilisent comme porte-parapluie et Leif est transformée en marsouin et disparait au loin dans l'océan. La grand-mère a elle aussi fait face à une sorcière, y laissant un pouce mais refuse de raconter cette histoire.
 Comme le prévoit le testament des parents, le narrateur et sa grand-mère retournent en Angleterre, où il est né et a fréquenté l'école, et où se trouve la maison dont il hérite. Cependant, la grand-mère avertit le garçon qu'il doit rester sur ses gardes, car les sorcières anglaises sont connues pour être parmi les plus vicieuses du monde, réputées pour transformer les enfants en créatures détestables afin que les adultes qui ne se doutent de rien les tuent. La grand-mère lui révèle que les sorcières des différents pays ont des coutumes différentes et que, bien que les sorcières de chaque pays soient étroitement liées les unes aux autres, elles ne sont pas autorisées à communiquer avec les sorcières d'autres pays. Elle lui parle également de la mystérieuse Grande Sorcière du Monde, chef redouté et diabolique de toutes les sorcières du monde, qui visite toutes les sorcières de chaque pays, chaque année, lors d'un congrès organisé.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sacr%C3%A9es_Sorci%C3%A8res</t>
+          <t>Sacrées_Sorcières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce livre, très connu aux États-Unis depuis 1983, est conseillé en France par le Ministère de l'Éducation nationale.
 </t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sacr%C3%A9es_Sorci%C3%A8res</t>
+          <t>Sacrées_Sorcières</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gallimard, coll. « 1000 Soleils », 1984  (ISBN 2-07-050183-3)
 Gallimard, coll. « Folio junior » no 343, 1986  (ISBN 2-07-033343-4)
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sacr%C3%A9es_Sorci%C3%A8res</t>
+          <t>Sacrées_Sorcières</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,11 +635,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cinéma
-Nicolas Roeg réalise Les Sorcières (The Witches), sorti en 1990, avec Anjelica Huston et Mai Zetterling.
-Robert Zemeckis réalise une seconde adaptation du livre, Sacrées Sorcières (The Witches), sorti en 2020, avec Anne Hathaway et Octavia Spencer.
-Bande dessinée
-Pénélope Bagieu a écrit et illustré une adaptation en bande dessinée appelée Sacrée Sorcière, publiée en 2020 par les Éditions Gallimard[1],[2]</t>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nicolas Roeg réalise Les Sorcières (The Witches), sorti en 1990, avec Anjelica Huston et Mai Zetterling.
+Robert Zemeckis réalise une seconde adaptation du livre, Sacrées Sorcières (The Witches), sorti en 2020, avec Anne Hathaway et Octavia Spencer.</t>
         </is>
       </c>
     </row>
@@ -631,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sacr%C3%A9es_Sorci%C3%A8res</t>
+          <t>Sacrées_Sorcières</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,15 +667,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pénélope Bagieu a écrit et illustré une adaptation en bande dessinée appelée Sacrée Sorcière, publiée en 2020 par les Éditions Gallimard,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sacrées_Sorcières</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sacr%C3%A9es_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Polémiques et réécritures</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman a connu comme d'autres œuvres de Roald Dahl des modifications et des réécritures en 2022. C'est une démarche de l'éditeur Puffin et Roald Dahl Story Company dans le but de supprimer les éléments de langage jugés offensants. Le texte de 1983 a donc connu des modifications et des ajouts pour qu'il puisse continuer de correspondre à tous.
-Il y a l'ajout de la phrase [3]« Il existe plusieurs raisons pour lesquelles les femmes pourraient porter des perruques et il n'y a rien de mal à cela »
-Il y a également une modification de texte lors d'une énumération de métiers que peuvent pratiquer des femmes, passant de « caissière dans un supermarché ou secrétaire pour un homme d’affaires » dans la version originale à « scientifique de haut niveau ou cheffe d’entreprise » dans la réédition[4],[3].
-Ces réécritures ont créé de nombreuses polémiques au Royaume Uni, elles sont très disputées et critiquées notamment par l'écrivain Salman Rushdie[5]
+Il y a l'ajout de la phrase « Il existe plusieurs raisons pour lesquelles les femmes pourraient porter des perruques et il n'y a rien de mal à cela »
+Il y a également une modification de texte lors d'une énumération de métiers que peuvent pratiquer des femmes, passant de « caissière dans un supermarché ou secrétaire pour un homme d’affaires » dans la version originale à « scientifique de haut niveau ou cheffe d’entreprise » dans la réédition,.
+Ces réécritures ont créé de nombreuses polémiques au Royaume Uni, elles sont très disputées et critiquées notamment par l'écrivain Salman Rushdie
 </t>
         </is>
       </c>
